--- a/PharmaBook/wwwroot/bulktemplate/BulkUploadTemplate.xlsx
+++ b/PharmaBook/wwwroot/bulktemplate/BulkUploadTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="BulkUpload" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>MedicineName</t>
   </si>
@@ -27,15 +27,9 @@
     <t>BatchNo</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
     <t>Mfg</t>
   </si>
   <si>
-    <t>MRP</t>
-  </si>
-  <si>
     <t>ExpDate</t>
   </si>
   <si>
@@ -43,12 +37,21 @@
   </si>
   <si>
     <t>Remark</t>
+  </si>
+  <si>
+    <t>Stef</t>
+  </si>
+  <si>
+    <t>TabletsCapsule</t>
+  </si>
+  <si>
+    <t>StefPrice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,12 +387,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,14 +400,15 @@
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="27.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="21.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,43 +416,50 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Invalid Date Format" promptTitle="Required" prompt="Please provide dd/mm/yyyy format_x000a_Like 23/12/2019" sqref="F1:F1048576" xr:uid="{F188E716-FC9E-418C-AE16-AAFFFE8C1B36}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Stock Range " error="please provide stock between 1 to 1000" promptTitle="Required Field" prompt="please provide stock between 1 to 1000" sqref="C1:C1048576" xr:uid="{AE89399F-0FC2-469C-B484-1AD20F197568}">
-      <formula1>1</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="optional field" prompt="Please provide Valid Vendor Id._x000a_" sqref="G1:G1048576" xr:uid="{2BB8B2C5-40BB-4393-B6A9-3B7AD9F4FC0A}">
+  <dataValidations count="9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Invalid Date Format" promptTitle="Required" prompt="Please provide dd/mm/yyyy format_x000a_Like 23/12/2019" sqref="G1:G1048576"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="optional field" prompt="Please provide Valid Vendor Id._x000a_" sqref="H1:H1048576">
       <formula1>1</formula1>
       <formula2>11111111111111100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required fields" prompt="Please provide Medicine name " sqref="A1:A1048576" xr:uid="{9FA03371-C2E8-4A24-8614-1B1372293D51}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required Field" prompt="Please provide valid batch number" sqref="B1:B1048576" xr:uid="{22528C0D-94BB-4452-8046-C27DE85BE254}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required field" prompt="Please provide Brand/Mfg Name" sqref="D1:D1048576" xr:uid="{8492B5D9-A429-4B48-A364-76CCE710E67A}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid " error="Please provide Valid MRP" promptTitle="Required Field" prompt="Please provide MRP" sqref="E1:E1048576" xr:uid="{DB770B44-C171-44A8-887A-5480E9AFD74C}">
-      <formula1>0</formula1>
-      <formula2>10000</formula2>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required fields" prompt="Please provide Medicine name " sqref="A1:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required Field" prompt="Please provide valid batch number" sqref="B1:B1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required field" prompt="Please provide Brand/Mfg Name" sqref="F1:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Optinal Field" prompt="Provide Product Remarks" sqref="I1:I1048576"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Stef Price Required" prompt="Please provide number between 1 to 200" sqref="C1:C1048576">
+      <formula1>1</formula1>
+      <formula2>200</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Optinal Field" prompt="Provide Product Remarks" sqref="H1:H1048576" xr:uid="{1A29DF03-8104-4255-9F09-34AC1FCBC9B9}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TabletsCapsule Required" prompt="Please provide 1 to 200" sqref="D1:D1048576">
+      <formula1>1</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required field" prompt="please provide Stef Price " sqref="E1:E1048576">
+      <formula1>1</formula1>
+      <formula2>100000</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
